--- a/Jogos_do_Dia/2023-05-04_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-05-04_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH43"/>
+  <dimension ref="A1:AH44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -632,13 +632,13 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.23</v>
+        <v>2.25</v>
       </c>
       <c r="G2" t="n">
-        <v>3.05</v>
+        <v>2.9</v>
       </c>
       <c r="H2" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I2" t="n">
         <v>1.1</v>
@@ -653,10 +653,10 @@
         <v>2.65</v>
       </c>
       <c r="M2" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="N2" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="O2" t="n">
         <v>1.53</v>
@@ -695,19 +695,19 @@
         <v>2.28</v>
       </c>
       <c r="AA2" t="n">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="AB2" t="n">
-        <v>0</v>
+        <v>6.25</v>
       </c>
       <c r="AC2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AD2" t="n">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="AE2" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="AF2" t="n">
         <v>1.67</v>
@@ -742,13 +742,13 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.91</v>
+        <v>1.85</v>
       </c>
       <c r="G3" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="H3" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="I3" t="n">
         <v>1.11</v>
@@ -757,10 +757,10 @@
         <v>6</v>
       </c>
       <c r="K3" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="L3" t="n">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="M3" t="n">
         <v>2.3</v>
@@ -852,13 +852,13 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.21</v>
+        <v>2.25</v>
       </c>
       <c r="G4" t="n">
         <v>3</v>
       </c>
       <c r="H4" t="n">
-        <v>3.15</v>
+        <v>2.9</v>
       </c>
       <c r="I4" t="n">
         <v>1.08</v>
@@ -873,7 +873,7 @@
         <v>2.9</v>
       </c>
       <c r="M4" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="N4" t="n">
         <v>1.6</v>
@@ -933,7 +933,7 @@
         <v>0</v>
       </c>
       <c r="AG4" t="n">
-        <v>0</v>
+        <v>1.93</v>
       </c>
       <c r="AH4" t="n">
         <v>0</v>
@@ -962,10 +962,10 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="G5" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="H5" t="n">
         <v>3.6</v>
@@ -983,10 +983,10 @@
         <v>2.64</v>
       </c>
       <c r="M5" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="N5" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="O5" t="n">
         <v>1.48</v>
@@ -1025,28 +1025,28 @@
         <v>0</v>
       </c>
       <c r="AA5" t="n">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="AB5" t="n">
-        <v>0</v>
+        <v>5.75</v>
       </c>
       <c r="AC5" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AD5" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="AE5" t="n">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="AF5" t="n">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="AG5" t="n">
-        <v>0</v>
+        <v>2.49</v>
       </c>
       <c r="AH5" t="n">
-        <v>0</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="6">
@@ -1254,19 +1254,19 @@
         <v>0</v>
       </c>
       <c r="AD7" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="AE7" t="n">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="AF7" t="n">
-        <v>0</v>
+        <v>2.03</v>
       </c>
       <c r="AG7" t="n">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="AH7" t="n">
-        <v>0</v>
+        <v>3.75</v>
       </c>
     </row>
     <row r="8">
@@ -1298,7 +1298,7 @@
         <v>3.25</v>
       </c>
       <c r="H8" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I8" t="n">
         <v>1.07</v>
@@ -1313,10 +1313,10 @@
         <v>2.95</v>
       </c>
       <c r="M8" t="n">
-        <v>2.01</v>
+        <v>2.12</v>
       </c>
       <c r="N8" t="n">
-        <v>1.57</v>
+        <v>1.72</v>
       </c>
       <c r="O8" t="n">
         <v>1.44</v>
@@ -1355,28 +1355,28 @@
         <v>2.05</v>
       </c>
       <c r="AA8" t="n">
-        <v>0</v>
+        <v>1.92</v>
       </c>
       <c r="AB8" t="n">
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="AC8" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="AD8" t="n">
         <v>0</v>
       </c>
       <c r="AE8" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="AF8" t="n">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="AG8" t="n">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="AH8" t="n">
-        <v>0</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="9">
@@ -1402,13 +1402,13 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="G9" t="n">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="H9" t="n">
-        <v>2.88</v>
+        <v>2.63</v>
       </c>
       <c r="I9" t="n">
         <v>1.08</v>
@@ -1423,10 +1423,10 @@
         <v>3</v>
       </c>
       <c r="M9" t="n">
-        <v>2.01</v>
+        <v>2.1</v>
       </c>
       <c r="N9" t="n">
-        <v>1.57</v>
+        <v>1.65</v>
       </c>
       <c r="O9" t="n">
         <v>1.49</v>
@@ -1465,25 +1465,25 @@
         <v>2.29</v>
       </c>
       <c r="AA9" t="n">
-        <v>0</v>
+        <v>2.15</v>
       </c>
       <c r="AB9" t="n">
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="AC9" t="n">
-        <v>0</v>
+        <v>2.15</v>
       </c>
       <c r="AD9" t="n">
         <v>0</v>
       </c>
       <c r="AE9" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AF9" t="n">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="AG9" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="AH9" t="n">
         <v>0</v>
@@ -1512,13 +1512,13 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>4.75</v>
+        <v>4.33</v>
       </c>
       <c r="G10" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="H10" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="I10" t="n">
         <v>1.03</v>
@@ -1533,10 +1533,10 @@
         <v>4.33</v>
       </c>
       <c r="M10" t="n">
-        <v>1.53</v>
+        <v>1.8</v>
       </c>
       <c r="N10" t="n">
-        <v>2.07</v>
+        <v>2.02</v>
       </c>
       <c r="O10" t="n">
         <v>1.35</v>
@@ -1575,25 +1575,25 @@
         <v>3.05</v>
       </c>
       <c r="AA10" t="n">
-        <v>0</v>
+        <v>4.3</v>
       </c>
       <c r="AB10" t="n">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="AC10" t="n">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="AD10" t="n">
         <v>0</v>
       </c>
       <c r="AE10" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AF10" t="n">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="AG10" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="AH10" t="n">
         <v>0</v>
@@ -1622,13 +1622,13 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.54</v>
+        <v>3.4</v>
       </c>
       <c r="G11" t="n">
-        <v>2.99</v>
+        <v>2.95</v>
       </c>
       <c r="H11" t="n">
-        <v>2.31</v>
+        <v>2.05</v>
       </c>
       <c r="I11" t="n">
         <v>1.05</v>
@@ -1643,10 +1643,10 @@
         <v>3.2</v>
       </c>
       <c r="M11" t="n">
-        <v>1.86</v>
+        <v>2.15</v>
       </c>
       <c r="N11" t="n">
-        <v>1.69</v>
+        <v>1.62</v>
       </c>
       <c r="O11" t="n">
         <v>1.46</v>
@@ -1706,7 +1706,7 @@
         <v>2.98</v>
       </c>
       <c r="AH11" t="n">
-        <v>0</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="12">
@@ -1732,13 +1732,13 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>6.44</v>
+        <v>9</v>
       </c>
       <c r="G12" t="n">
-        <v>4.01</v>
+        <v>4.33</v>
       </c>
       <c r="H12" t="n">
-        <v>1.32</v>
+        <v>1.28</v>
       </c>
       <c r="I12" t="n">
         <v>1.04</v>
@@ -1753,10 +1753,10 @@
         <v>3.75</v>
       </c>
       <c r="M12" t="n">
-        <v>1.69</v>
+        <v>1.9</v>
       </c>
       <c r="N12" t="n">
-        <v>1.86</v>
+        <v>1.8</v>
       </c>
       <c r="O12" t="n">
         <v>1.35</v>
@@ -1822,87 +1822,87 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Slovenia PrvaLiga</t>
+          <t>Tunisia Ligue 1</t>
         </is>
       </c>
       <c r="B13" s="2" t="n">
-        <v>45050.52083333334</v>
+        <v>45050.5</v>
       </c>
       <c r="C13" t="n">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Bravo</t>
+          <t>Ben Guerdane</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Tabor Sežana</t>
+          <t>Monastir</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.08</v>
+        <v>2.4</v>
       </c>
       <c r="G13" t="n">
-        <v>3.07</v>
+        <v>2.65</v>
       </c>
       <c r="H13" t="n">
-        <v>2.83</v>
+        <v>3.1</v>
       </c>
       <c r="I13" t="n">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>11.25</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>1.29</v>
+        <v>1.7</v>
       </c>
       <c r="L13" t="n">
-        <v>3.3</v>
+        <v>2.15</v>
       </c>
       <c r="M13" t="n">
-        <v>1.72</v>
+        <v>2.96</v>
       </c>
       <c r="N13" t="n">
-        <v>1.82</v>
+        <v>1.28</v>
       </c>
       <c r="O13" t="n">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>2.75</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.78</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>1.95</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>1.24</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>1.27</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>1.82</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>1.44</v>
+        <v>1.89</v>
       </c>
       <c r="W13" t="n">
-        <v>0.75</v>
+        <v>1.83</v>
       </c>
       <c r="X13" t="n">
-        <v>1.8</v>
+        <v>1.26</v>
       </c>
       <c r="Y13" t="n">
-        <v>1.58</v>
+        <v>1.09</v>
       </c>
       <c r="Z13" t="n">
-        <v>3.38</v>
+        <v>2.35</v>
       </c>
       <c r="AA13" t="n">
         <v>0</v>
@@ -1914,16 +1914,16 @@
         <v>0</v>
       </c>
       <c r="AD13" t="n">
-        <v>1.35</v>
+        <v>0</v>
       </c>
       <c r="AE13" t="n">
-        <v>1.67</v>
+        <v>0</v>
       </c>
       <c r="AF13" t="n">
-        <v>2.13</v>
+        <v>0</v>
       </c>
       <c r="AG13" t="n">
-        <v>2.9</v>
+        <v>0</v>
       </c>
       <c r="AH13" t="n">
         <v>0</v>
@@ -1932,111 +1932,111 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Egypt Egyptian Premier League</t>
+          <t>Slovenia PrvaLiga</t>
         </is>
       </c>
       <c r="B14" s="2" t="n">
-        <v>45050.54166666666</v>
+        <v>45050.52083333334</v>
       </c>
       <c r="C14" t="n">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Haras El Hodood</t>
+          <t>Bravo</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>El Geish</t>
+          <t>Tabor Sežana</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>3.45</v>
+        <v>1.91</v>
       </c>
       <c r="G14" t="n">
-        <v>2.6</v>
+        <v>3.3</v>
       </c>
       <c r="H14" t="n">
-        <v>2.33</v>
+        <v>3.4</v>
       </c>
       <c r="I14" t="n">
-        <v>1.09</v>
+        <v>1.05</v>
       </c>
       <c r="J14" t="n">
-        <v>5.8</v>
+        <v>11.25</v>
       </c>
       <c r="K14" t="n">
-        <v>1.57</v>
+        <v>1.29</v>
       </c>
       <c r="L14" t="n">
-        <v>2.3</v>
+        <v>3.3</v>
       </c>
       <c r="M14" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="N14" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P14" t="n">
         <v>2.75</v>
       </c>
-      <c r="N14" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="O14" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="P14" t="n">
-        <v>2.23</v>
-      </c>
       <c r="Q14" t="n">
-        <v>2.27</v>
+        <v>1.78</v>
       </c>
       <c r="R14" t="n">
-        <v>1.56</v>
+        <v>1.95</v>
       </c>
       <c r="S14" t="n">
-        <v>1.51</v>
+        <v>1.24</v>
       </c>
       <c r="T14" t="n">
-        <v>1.34</v>
+        <v>1.27</v>
       </c>
       <c r="U14" t="n">
-        <v>1.23</v>
+        <v>1.82</v>
       </c>
       <c r="V14" t="n">
-        <v>0.91</v>
+        <v>1.44</v>
       </c>
       <c r="W14" t="n">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="X14" t="n">
-        <v>1.07</v>
+        <v>1.8</v>
       </c>
       <c r="Y14" t="n">
-        <v>1.2</v>
+        <v>1.58</v>
       </c>
       <c r="Z14" t="n">
-        <v>2.27</v>
+        <v>3.38</v>
       </c>
       <c r="AA14" t="n">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="AB14" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AC14" t="n">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="AD14" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="AE14" t="n">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="AF14" t="n">
-        <v>0</v>
+        <v>2.13</v>
       </c>
       <c r="AG14" t="n">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="AH14" t="n">
-        <v>0</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="15">
@@ -2053,97 +2053,97 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Al Mokawloon</t>
+          <t>Haras El Hodood</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>National Bank of Egypt</t>
+          <t>El Geish</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.09</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>5.8</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>1.61</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>2.23</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>2.27</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>1.56</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="V15" t="n">
-        <v>1.58</v>
+        <v>0.91</v>
       </c>
       <c r="W15" t="n">
-        <v>0.31</v>
+        <v>0.5</v>
       </c>
       <c r="X15" t="n">
-        <v>1.58</v>
+        <v>1.07</v>
       </c>
       <c r="Y15" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="Z15" t="n">
-        <v>2.77</v>
+        <v>2.27</v>
       </c>
       <c r="AA15" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="AB15" t="n">
-        <v>0</v>
+        <v>6.7</v>
       </c>
       <c r="AC15" t="n">
-        <v>0</v>
+        <v>1.87</v>
       </c>
       <c r="AD15" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="AE15" t="n">
-        <v>0</v>
+        <v>1.72</v>
       </c>
       <c r="AF15" t="n">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="AG15" t="n">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="AH15" t="n">
         <v>0</v>
@@ -2152,111 +2152,111 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Sweden Allsvenskan</t>
+          <t>Egypt Egyptian Premier League</t>
         </is>
       </c>
       <c r="B16" s="2" t="n">
-        <v>45050.58333333334</v>
+        <v>45050.54166666666</v>
       </c>
       <c r="C16" t="n">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>IFK Göteborg</t>
+          <t>Al Mokawloon</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Degerfors</t>
+          <t>National Bank of Egypt</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="G16" t="n">
-        <v>3.72</v>
+        <v>2.5</v>
       </c>
       <c r="H16" t="n">
-        <v>3.69</v>
+        <v>4.25</v>
       </c>
       <c r="I16" t="n">
-        <v>1.05</v>
+        <v>1.12</v>
       </c>
       <c r="J16" t="n">
-        <v>11</v>
+        <v>5.1</v>
       </c>
       <c r="K16" t="n">
-        <v>1.3</v>
+        <v>1.58</v>
       </c>
       <c r="L16" t="n">
-        <v>3.6</v>
+        <v>2.29</v>
       </c>
       <c r="M16" t="n">
-        <v>1.87</v>
+        <v>2.9</v>
       </c>
       <c r="N16" t="n">
-        <v>1.99</v>
+        <v>1.36</v>
       </c>
       <c r="O16" t="n">
-        <v>1.35</v>
+        <v>1.62</v>
       </c>
       <c r="P16" t="n">
-        <v>2.9</v>
+        <v>2.15</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.68</v>
+        <v>2.25</v>
       </c>
       <c r="R16" t="n">
-        <v>2</v>
+        <v>1.57</v>
       </c>
       <c r="S16" t="n">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="T16" t="n">
-        <v>1.29</v>
+        <v>1.42</v>
       </c>
       <c r="U16" t="n">
-        <v>1.77</v>
+        <v>1.65</v>
       </c>
       <c r="V16" t="n">
-        <v>0.33</v>
+        <v>1.58</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>0.31</v>
       </c>
       <c r="X16" t="n">
-        <v>1.13</v>
+        <v>1.58</v>
       </c>
       <c r="Y16" t="n">
-        <v>1.11</v>
+        <v>1.19</v>
       </c>
       <c r="Z16" t="n">
-        <v>2.24</v>
+        <v>2.77</v>
       </c>
       <c r="AA16" t="n">
-        <v>1.55</v>
+        <v>0</v>
       </c>
       <c r="AB16" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AC16" t="n">
-        <v>2.9</v>
+        <v>0</v>
       </c>
       <c r="AD16" t="n">
         <v>0</v>
       </c>
       <c r="AE16" t="n">
-        <v>1.21</v>
+        <v>0</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="AG16" t="n">
-        <v>1.67</v>
+        <v>0</v>
       </c>
       <c r="AH16" t="n">
-        <v>2.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -2273,100 +2273,100 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Norrköping</t>
+          <t>IFK Göteborg</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Hammarby</t>
+          <t>Degerfors</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.94</v>
+        <v>1.95</v>
       </c>
       <c r="G17" t="n">
-        <v>3.61</v>
+        <v>3.3</v>
       </c>
       <c r="H17" t="n">
-        <v>2.37</v>
+        <v>3.4</v>
       </c>
       <c r="I17" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="J17" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K17" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="L17" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="N17" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="P17" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="R17" t="n">
+        <v>2</v>
+      </c>
+      <c r="S17" t="n">
         <v>1.28</v>
-      </c>
-      <c r="L17" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="M17" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="N17" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="O17" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="P17" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="R17" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="S17" t="n">
-        <v>1.52</v>
       </c>
       <c r="T17" t="n">
         <v>1.29</v>
       </c>
       <c r="U17" t="n">
-        <v>1.44</v>
+        <v>1.77</v>
       </c>
       <c r="V17" t="n">
-        <v>2</v>
+        <v>0.33</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>1.32</v>
+        <v>1.13</v>
       </c>
       <c r="Y17" t="n">
-        <v>1.2</v>
+        <v>1.11</v>
       </c>
       <c r="Z17" t="n">
-        <v>2.52</v>
+        <v>2.24</v>
       </c>
       <c r="AA17" t="n">
-        <v>2.28</v>
+        <v>1.55</v>
       </c>
       <c r="AB17" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AC17" t="n">
-        <v>1.85</v>
+        <v>2.9</v>
       </c>
       <c r="AD17" t="n">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="AE17" t="n">
-        <v>1.29</v>
+        <v>1.21</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="AG17" t="n">
-        <v>1.74</v>
+        <v>1.67</v>
       </c>
       <c r="AH17" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="18">
@@ -2383,91 +2383,91 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Värnamo</t>
+          <t>Norrköping</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Brommapojkarna</t>
+          <t>Hammarby</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.93</v>
+        <v>2.7</v>
       </c>
       <c r="G18" t="n">
-        <v>3.7</v>
+        <v>3.25</v>
       </c>
       <c r="H18" t="n">
-        <v>3.96</v>
+        <v>2.35</v>
       </c>
       <c r="I18" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="J18" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K18" t="n">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="L18" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M18" t="n">
-        <v>1.88</v>
+        <v>1.7</v>
       </c>
       <c r="N18" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="O18" t="n">
-        <v>1.37</v>
+        <v>1.31</v>
       </c>
       <c r="P18" t="n">
-        <v>2.85</v>
+        <v>3.1</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.77</v>
+        <v>1.58</v>
       </c>
       <c r="R18" t="n">
-        <v>1.93</v>
+        <v>2.2</v>
       </c>
       <c r="S18" t="n">
-        <v>1.23</v>
+        <v>1.52</v>
       </c>
       <c r="T18" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="U18" t="n">
-        <v>1.9</v>
+        <v>1.44</v>
       </c>
       <c r="V18" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="W18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>1.47</v>
+        <v>1.32</v>
       </c>
       <c r="Y18" t="n">
-        <v>1.28</v>
+        <v>1.2</v>
       </c>
       <c r="Z18" t="n">
-        <v>2.75</v>
+        <v>2.52</v>
       </c>
       <c r="AA18" t="n">
-        <v>1.56</v>
+        <v>2.28</v>
       </c>
       <c r="AB18" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AC18" t="n">
-        <v>2.9</v>
+        <v>1.85</v>
       </c>
       <c r="AD18" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="AE18" t="n">
-        <v>1.24</v>
+        <v>1.29</v>
       </c>
       <c r="AF18" t="n">
         <v>1.43</v>
@@ -2493,647 +2493,647 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Varberg</t>
+          <t>Värnamo</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Malmö FF</t>
+          <t>Brommapojkarna</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>6.81</v>
+        <v>1.83</v>
       </c>
       <c r="G19" t="n">
-        <v>4.28</v>
+        <v>3.4</v>
       </c>
       <c r="H19" t="n">
-        <v>1.51</v>
+        <v>3.9</v>
       </c>
       <c r="I19" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="J19" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K19" t="n">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="L19" t="n">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M19" t="n">
-        <v>1.64</v>
+        <v>1.8</v>
       </c>
       <c r="N19" t="n">
-        <v>2.25</v>
+        <v>1.83</v>
       </c>
       <c r="O19" t="n">
-        <v>1.29</v>
+        <v>1.37</v>
       </c>
       <c r="P19" t="n">
-        <v>3.3</v>
+        <v>2.85</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="R19" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="S19" t="n">
-        <v>2.6</v>
+        <v>1.23</v>
       </c>
       <c r="T19" t="n">
-        <v>1.19</v>
+        <v>1.28</v>
       </c>
       <c r="U19" t="n">
-        <v>1.13</v>
+        <v>1.9</v>
       </c>
       <c r="V19" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="W19" t="n">
         <v>1</v>
       </c>
-      <c r="W19" t="n">
-        <v>3</v>
-      </c>
       <c r="X19" t="n">
-        <v>1.02</v>
+        <v>1.47</v>
       </c>
       <c r="Y19" t="n">
-        <v>1.65</v>
+        <v>1.28</v>
       </c>
       <c r="Z19" t="n">
-        <v>2.67</v>
+        <v>2.75</v>
       </c>
       <c r="AA19" t="n">
-        <v>5.1</v>
+        <v>1.56</v>
       </c>
       <c r="AB19" t="n">
-        <v>9.5</v>
+        <v>8</v>
       </c>
       <c r="AC19" t="n">
-        <v>1.22</v>
+        <v>2.9</v>
       </c>
       <c r="AD19" t="n">
-        <v>0</v>
+        <v>1.11</v>
       </c>
       <c r="AE19" t="n">
-        <v>1.29</v>
+        <v>1.24</v>
       </c>
       <c r="AF19" t="n">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AG19" t="n">
-        <v>1.93</v>
+        <v>1.74</v>
       </c>
       <c r="AH19" t="n">
-        <v>2.43</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Spain La Liga</t>
+          <t>Sweden Allsvenskan</t>
         </is>
       </c>
       <c r="B20" s="2" t="n">
-        <v>45050.60416666666</v>
+        <v>45050.58333333334</v>
       </c>
       <c r="C20" t="n">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Sevilla FC</t>
+          <t>Varberg</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>RCD Espanyol</t>
+          <t>Malmö FF</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.75</v>
+        <v>5.75</v>
       </c>
       <c r="G20" t="n">
-        <v>3.63</v>
+        <v>4</v>
       </c>
       <c r="H20" t="n">
-        <v>4.68</v>
+        <v>1.5</v>
       </c>
       <c r="I20" t="n">
-        <v>1.06</v>
+        <v>1.03</v>
       </c>
       <c r="J20" t="n">
-        <v>8.5</v>
+        <v>13</v>
       </c>
       <c r="K20" t="n">
-        <v>1.34</v>
+        <v>1.25</v>
       </c>
       <c r="L20" t="n">
+        <v>4</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="N20" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="O20" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P20" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="R20" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="S20" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="T20" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="U20" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="V20" t="n">
+        <v>1</v>
+      </c>
+      <c r="W20" t="n">
         <v>3</v>
       </c>
-      <c r="M20" t="n">
-        <v>2</v>
-      </c>
-      <c r="N20" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="O20" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="P20" t="n">
-        <v>2.73</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="R20" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="S20" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="T20" t="n">
+      <c r="X20" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AE20" t="n">
         <v>1.29</v>
       </c>
-      <c r="U20" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="V20" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="W20" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="X20" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="Z20" t="n">
-        <v>3.03</v>
-      </c>
-      <c r="AA20" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="AB20" t="n">
-        <v>8</v>
-      </c>
-      <c r="AC20" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="AD20" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="AE20" t="n">
-        <v>1.67</v>
-      </c>
       <c r="AF20" t="n">
-        <v>2.08</v>
+        <v>1.5</v>
       </c>
       <c r="AG20" t="n">
-        <v>2.7</v>
+        <v>1.93</v>
       </c>
       <c r="AH20" t="n">
-        <v>3.65</v>
+        <v>2.43</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Bulgaria First League</t>
+          <t>Spain La Liga</t>
         </is>
       </c>
       <c r="B21" s="2" t="n">
         <v>45050.60416666666</v>
       </c>
       <c r="C21" t="n">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Levski Sofia</t>
+          <t>Sevilla FC</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Septemvri Sofia</t>
+          <t>RCD Espanyol</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1.13</v>
+        <v>1.76</v>
       </c>
       <c r="G21" t="n">
-        <v>5.09</v>
+        <v>3.8</v>
       </c>
       <c r="H21" t="n">
-        <v>12.25</v>
+        <v>4.55</v>
       </c>
       <c r="I21" t="n">
-        <v>1.02</v>
+        <v>1.06</v>
       </c>
       <c r="J21" t="n">
-        <v>14</v>
+        <v>8.5</v>
       </c>
       <c r="K21" t="n">
-        <v>1.19</v>
+        <v>1.34</v>
       </c>
       <c r="L21" t="n">
-        <v>3.95</v>
+        <v>3</v>
       </c>
       <c r="M21" t="n">
-        <v>1.6</v>
+        <v>2.03</v>
       </c>
       <c r="N21" t="n">
-        <v>1.98</v>
+        <v>1.73</v>
       </c>
       <c r="O21" t="n">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="P21" t="n">
-        <v>3.23</v>
+        <v>2.73</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.35</v>
+        <v>1.88</v>
       </c>
       <c r="R21" t="n">
-        <v>1.47</v>
+        <v>1.8</v>
       </c>
       <c r="S21" t="n">
-        <v>1.04</v>
+        <v>1.24</v>
       </c>
       <c r="T21" t="n">
-        <v>1.09</v>
+        <v>1.29</v>
       </c>
       <c r="U21" t="n">
-        <v>2.97</v>
+        <v>1.85</v>
       </c>
       <c r="V21" t="n">
-        <v>2.14</v>
+        <v>1.38</v>
       </c>
       <c r="W21" t="n">
-        <v>0.79</v>
+        <v>0.88</v>
       </c>
       <c r="X21" t="n">
-        <v>2.16</v>
+        <v>1.92</v>
       </c>
       <c r="Y21" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="Z21" t="n">
-        <v>3.41</v>
+        <v>3.03</v>
       </c>
       <c r="AA21" t="n">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="AB21" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AC21" t="n">
-        <v>0</v>
+        <v>2.88</v>
       </c>
       <c r="AD21" t="n">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="AE21" t="n">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="AF21" t="n">
-        <v>0</v>
+        <v>2.08</v>
       </c>
       <c r="AG21" t="n">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="AH21" t="n">
-        <v>0</v>
+        <v>3.65</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Spain La Liga</t>
+          <t>Bulgaria First League</t>
         </is>
       </c>
       <c r="B22" s="2" t="n">
         <v>45050.60416666666</v>
       </c>
       <c r="C22" t="n">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Girona FC</t>
+          <t>Levski Sofia</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>RCD Mallorca</t>
+          <t>Septemvri Sofia</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.92</v>
+        <v>1.2</v>
       </c>
       <c r="G22" t="n">
+        <v>5</v>
+      </c>
+      <c r="H22" t="n">
+        <v>11</v>
+      </c>
+      <c r="I22" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="J22" t="n">
+        <v>14</v>
+      </c>
+      <c r="K22" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="L22" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="N22" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="O22" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P22" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="R22" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="S22" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="T22" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="U22" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="V22" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="W22" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="X22" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="Z22" t="n">
         <v>3.41</v>
       </c>
-      <c r="H22" t="n">
-        <v>4.11</v>
-      </c>
-      <c r="I22" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="J22" t="n">
-        <v>7</v>
-      </c>
-      <c r="K22" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="L22" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="M22" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="N22" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="O22" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="P22" t="n">
-        <v>2.37</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="R22" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="S22" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="T22" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="U22" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="V22" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="W22" t="n">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="X22" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="Y22" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="Z22" t="n">
-        <v>2.83</v>
-      </c>
       <c r="AA22" t="n">
-        <v>1.68</v>
+        <v>0</v>
       </c>
       <c r="AB22" t="n">
-        <v>7.5</v>
+        <v>0</v>
       </c>
       <c r="AC22" t="n">
-        <v>2.55</v>
+        <v>0</v>
       </c>
       <c r="AD22" t="n">
-        <v>1.44</v>
+        <v>0</v>
       </c>
       <c r="AE22" t="n">
-        <v>1.79</v>
+        <v>0</v>
       </c>
       <c r="AF22" t="n">
-        <v>2.25</v>
+        <v>0</v>
       </c>
       <c r="AG22" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AH22" t="n">
-        <v>4.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Slovenia PrvaLiga</t>
+          <t>Spain La Liga</t>
         </is>
       </c>
       <c r="B23" s="2" t="n">
-        <v>45050.63541666666</v>
+        <v>45050.60416666666</v>
       </c>
       <c r="C23" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Koper</t>
+          <t>Girona FC</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Domžale</t>
+          <t>RCD Mallorca</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.8</v>
+        <v>2.3</v>
       </c>
       <c r="G23" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="H23" t="n">
-        <v>3.8</v>
+        <v>3.25</v>
       </c>
       <c r="I23" t="n">
-        <v>1.01</v>
+        <v>1.09</v>
       </c>
       <c r="J23" t="n">
-        <v>12.75</v>
+        <v>7</v>
       </c>
       <c r="K23" t="n">
-        <v>1.24</v>
+        <v>1.44</v>
       </c>
       <c r="L23" t="n">
-        <v>3.7</v>
+        <v>2.6</v>
       </c>
       <c r="M23" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="N23" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="O23" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P23" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="R23" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="S23" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="T23" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="U23" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="V23" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="W23" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="X23" t="n">
         <v>1.75</v>
       </c>
-      <c r="N23" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="O23" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="P23" t="n">
-        <v>2.85</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="R23" t="n">
-        <v>2</v>
-      </c>
-      <c r="S23" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="T23" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="U23" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="V23" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="W23" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="X23" t="n">
-        <v>1.71</v>
-      </c>
       <c r="Y23" t="n">
-        <v>1.41</v>
+        <v>1.08</v>
       </c>
       <c r="Z23" t="n">
-        <v>3.12</v>
+        <v>2.83</v>
       </c>
       <c r="AA23" t="n">
-        <v>0</v>
+        <v>1.68</v>
       </c>
       <c r="AB23" t="n">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="AC23" t="n">
-        <v>0</v>
+        <v>2.55</v>
       </c>
       <c r="AD23" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="AE23" t="n">
-        <v>0</v>
+        <v>1.79</v>
       </c>
       <c r="AF23" t="n">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="AG23" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AH23" t="n">
-        <v>0</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Egypt Egyptian Premier League</t>
+          <t>Slovenia PrvaLiga</t>
         </is>
       </c>
       <c r="B24" s="2" t="n">
-        <v>45050.64583333334</v>
+        <v>45050.63541666666</v>
       </c>
       <c r="C24" t="n">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Coca-Cola</t>
+          <t>Koper</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Pharco</t>
+          <t>Domžale</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1.76</v>
+        <v>1.89</v>
       </c>
       <c r="G24" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="H24" t="n">
-        <v>4.8</v>
+        <v>3.45</v>
       </c>
       <c r="I24" t="n">
-        <v>1.1</v>
+        <v>1.01</v>
       </c>
       <c r="J24" t="n">
-        <v>7</v>
+        <v>12.75</v>
       </c>
       <c r="K24" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="L24" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="N24" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="O24" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="P24" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="R24" t="n">
+        <v>2</v>
+      </c>
+      <c r="S24" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="T24" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="U24" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="V24" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="W24" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="X24" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE24" t="n">
         <v>1.51</v>
       </c>
-      <c r="L24" t="n">
+      <c r="AF24" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AG24" t="n">
         <v>2.45</v>
-      </c>
-      <c r="M24" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="N24" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="O24" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="P24" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="R24" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="S24" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="T24" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="U24" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="V24" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="W24" t="n">
-        <v>1</v>
-      </c>
-      <c r="X24" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="Y24" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="Z24" t="n">
-        <v>2.59</v>
-      </c>
-      <c r="AA24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG24" t="n">
-        <v>0</v>
       </c>
       <c r="AH24" t="n">
         <v>0</v>
@@ -3142,221 +3142,221 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>England Championship</t>
+          <t>Egypt Egyptian Premier League</t>
         </is>
       </c>
       <c r="B25" s="2" t="n">
-        <v>45050.65625</v>
+        <v>45050.64583333334</v>
       </c>
       <c r="C25" t="n">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Huddersfield Town</t>
+          <t>Coca-Cola</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Sheffield United</t>
+          <t>Pharco</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>3.21</v>
+        <v>1.65</v>
       </c>
       <c r="G25" t="n">
-        <v>3.37</v>
+        <v>3.1</v>
       </c>
       <c r="H25" t="n">
-        <v>2.32</v>
+        <v>5.5</v>
       </c>
       <c r="I25" t="n">
-        <v>1.06</v>
+        <v>1.1</v>
       </c>
       <c r="J25" t="n">
-        <v>8.75</v>
+        <v>7</v>
       </c>
       <c r="K25" t="n">
-        <v>1.31</v>
+        <v>1.51</v>
       </c>
       <c r="L25" t="n">
-        <v>3.2</v>
+        <v>2.45</v>
       </c>
       <c r="M25" t="n">
-        <v>2.04</v>
+        <v>2.4</v>
       </c>
       <c r="N25" t="n">
-        <v>1.83</v>
+        <v>1.5</v>
       </c>
       <c r="O25" t="n">
-        <v>1.4</v>
+        <v>1.54</v>
       </c>
       <c r="P25" t="n">
-        <v>2.7</v>
+        <v>2.25</v>
       </c>
       <c r="Q25" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="R25" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="S25" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="T25" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="U25" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V25" t="n">
         <v>1.75</v>
       </c>
-      <c r="R25" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="S25" t="n">
+      <c r="W25" t="n">
+        <v>1</v>
+      </c>
+      <c r="X25" t="n">
         <v>1.42</v>
       </c>
-      <c r="T25" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="U25" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="V25" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="W25" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="X25" t="n">
-        <v>1.24</v>
-      </c>
       <c r="Y25" t="n">
-        <v>1.37</v>
+        <v>1.17</v>
       </c>
       <c r="Z25" t="n">
-        <v>2.61</v>
+        <v>2.59</v>
       </c>
       <c r="AA25" t="n">
-        <v>2.1</v>
+        <v>1.41</v>
       </c>
       <c r="AB25" t="n">
-        <v>8</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC25" t="n">
-        <v>1.91</v>
+        <v>3.6</v>
       </c>
       <c r="AD25" t="n">
-        <v>1.23</v>
+        <v>1.34</v>
       </c>
       <c r="AE25" t="n">
-        <v>1.42</v>
+        <v>1.63</v>
       </c>
       <c r="AF25" t="n">
-        <v>1.73</v>
+        <v>2.09</v>
       </c>
       <c r="AG25" t="n">
-        <v>2.22</v>
+        <v>2.75</v>
       </c>
       <c r="AH25" t="n">
-        <v>2.95</v>
+        <v>3.86</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Italy Serie A</t>
+          <t>England Championship</t>
         </is>
       </c>
       <c r="B26" s="2" t="n">
         <v>45050.65625</v>
       </c>
       <c r="C26" t="n">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Empoli</t>
+          <t>Huddersfield Town</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Bologna</t>
+          <t>Sheffield United</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>2.8</v>
+        <v>2.74</v>
       </c>
       <c r="G26" t="n">
-        <v>3.28</v>
+        <v>3.45</v>
       </c>
       <c r="H26" t="n">
-        <v>2.55</v>
+        <v>2.36</v>
       </c>
       <c r="I26" t="n">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="J26" t="n">
-        <v>9.1</v>
+        <v>8.75</v>
       </c>
       <c r="K26" t="n">
-        <v>1.38</v>
+        <v>1.31</v>
       </c>
       <c r="L26" t="n">
-        <v>3.05</v>
+        <v>3.2</v>
       </c>
       <c r="M26" t="n">
-        <v>2.02</v>
+        <v>2.03</v>
       </c>
       <c r="N26" t="n">
-        <v>1.79</v>
+        <v>1.83</v>
       </c>
       <c r="O26" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="P26" t="n">
-        <v>2.63</v>
+        <v>2.7</v>
       </c>
       <c r="Q26" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="R26" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="S26" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="T26" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="U26" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="V26" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="W26" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="X26" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>8</v>
+      </c>
+      <c r="AC26" t="n">
         <v>1.91</v>
       </c>
-      <c r="R26" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="S26" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="T26" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="U26" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="V26" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="W26" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="X26" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="Y26" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="Z26" t="n">
-        <v>2.89</v>
-      </c>
-      <c r="AA26" t="n">
-        <v>2.17</v>
-      </c>
-      <c r="AB26" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AC26" t="n">
-        <v>1.92</v>
-      </c>
       <c r="AD26" t="n">
-        <v>1.38</v>
+        <v>1.23</v>
       </c>
       <c r="AE26" t="n">
-        <v>1.71</v>
+        <v>1.42</v>
       </c>
       <c r="AF26" t="n">
-        <v>2.16</v>
+        <v>1.73</v>
       </c>
       <c r="AG26" t="n">
-        <v>2.8</v>
+        <v>2.22</v>
       </c>
       <c r="AH26" t="n">
-        <v>3.85</v>
+        <v>2.95</v>
       </c>
     </row>
     <row r="27">
@@ -3373,320 +3373,320 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Udinese</t>
+          <t>Empoli</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Napoli</t>
+          <t>Bologna</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>4.56</v>
+        <v>3.05</v>
       </c>
       <c r="G27" t="n">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="H27" t="n">
-        <v>1.76</v>
+        <v>2.45</v>
       </c>
       <c r="I27" t="n">
-        <v>1.01</v>
+        <v>1.08</v>
       </c>
       <c r="J27" t="n">
-        <v>10</v>
+        <v>9.1</v>
       </c>
       <c r="K27" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="L27" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="M27" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="N27" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="O27" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P27" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="R27" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="S27" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="T27" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="U27" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="V27" t="n">
         <v>1.27</v>
       </c>
-      <c r="L27" t="n">
-        <v>3.62</v>
-      </c>
-      <c r="M27" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="N27" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="O27" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="P27" t="n">
-        <v>3.04</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="R27" t="n">
-        <v>2.01</v>
-      </c>
-      <c r="S27" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="T27" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="U27" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="V27" t="n">
-        <v>1.53</v>
-      </c>
       <c r="W27" t="n">
-        <v>2.69</v>
+        <v>1.13</v>
       </c>
       <c r="X27" t="n">
-        <v>1.85</v>
+        <v>1.57</v>
       </c>
       <c r="Y27" t="n">
-        <v>1.76</v>
+        <v>1.32</v>
       </c>
       <c r="Z27" t="n">
-        <v>3.61</v>
+        <v>2.89</v>
       </c>
       <c r="AA27" t="n">
-        <v>2.5</v>
+        <v>2.17</v>
       </c>
       <c r="AB27" t="n">
         <v>7.5</v>
       </c>
       <c r="AC27" t="n">
-        <v>1.68</v>
+        <v>1.92</v>
       </c>
       <c r="AD27" t="n">
-        <v>1.29</v>
+        <v>1.38</v>
       </c>
       <c r="AE27" t="n">
-        <v>1.54</v>
+        <v>1.71</v>
       </c>
       <c r="AF27" t="n">
-        <v>1.91</v>
+        <v>2.16</v>
       </c>
       <c r="AG27" t="n">
-        <v>2.43</v>
+        <v>2.8</v>
       </c>
       <c r="AH27" t="n">
-        <v>3.2</v>
+        <v>3.85</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>England Premier League</t>
+          <t>Italy Serie A</t>
         </is>
       </c>
       <c r="B28" s="2" t="n">
-        <v>45050.66666666666</v>
+        <v>45050.65625</v>
       </c>
       <c r="C28" t="n">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Brighton &amp; Hove Albion</t>
+          <t>Udinese</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Manchester United</t>
+          <t>Napoli</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>2</v>
+        <v>3.95</v>
       </c>
       <c r="G28" t="n">
-        <v>3.6</v>
+        <v>3.95</v>
       </c>
       <c r="H28" t="n">
-        <v>3.5</v>
+        <v>1.87</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>3.62</v>
       </c>
       <c r="M28" t="n">
-        <v>1.57</v>
+        <v>1.84</v>
       </c>
       <c r="N28" t="n">
-        <v>2.25</v>
+        <v>1.9</v>
       </c>
       <c r="O28" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="P28" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="R28" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="S28" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="T28" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="U28" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="V28" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="W28" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="X28" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>3.61</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AD28" t="n">
         <v>1.29</v>
       </c>
-      <c r="P28" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="R28" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="S28" t="n">
-        <v>0</v>
-      </c>
-      <c r="T28" t="n">
-        <v>0</v>
-      </c>
-      <c r="U28" t="n">
-        <v>0</v>
-      </c>
-      <c r="V28" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="W28" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="X28" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="Y28" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="Z28" t="n">
-        <v>3.64</v>
-      </c>
-      <c r="AA28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD28" t="n">
-        <v>0</v>
-      </c>
       <c r="AE28" t="n">
-        <v>0</v>
+        <v>1.54</v>
       </c>
       <c r="AF28" t="n">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="AG28" t="n">
-        <v>0</v>
+        <v>2.43</v>
       </c>
       <c r="AH28" t="n">
-        <v>0</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Spain La Liga</t>
+          <t>England Premier League</t>
         </is>
       </c>
       <c r="B29" s="2" t="n">
-        <v>45050.70833333334</v>
+        <v>45050.66666666666</v>
       </c>
       <c r="C29" t="n">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Athletic Club Bilbao</t>
+          <t>Brighton &amp; Hove Albion</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Real Betis</t>
+          <t>Manchester United</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>1.68</v>
+        <v>2</v>
       </c>
       <c r="G29" t="n">
-        <v>3.76</v>
+        <v>3.6</v>
       </c>
       <c r="H29" t="n">
-        <v>5.05</v>
+        <v>3.5</v>
       </c>
       <c r="I29" t="n">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>8.5</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>1.96</v>
+        <v>1.57</v>
       </c>
       <c r="N29" t="n">
-        <v>1.85</v>
+        <v>2.25</v>
       </c>
       <c r="O29" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="P29" t="n">
-        <v>2.8</v>
+        <v>3.5</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.95</v>
+        <v>1.53</v>
       </c>
       <c r="R29" t="n">
-        <v>1.86</v>
+        <v>2.38</v>
       </c>
       <c r="S29" t="n">
-        <v>1.17</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>2.25</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="W29" t="n">
         <v>1.5</v>
       </c>
-      <c r="W29" t="n">
-        <v>1.31</v>
-      </c>
       <c r="X29" t="n">
-        <v>1.97</v>
+        <v>2.07</v>
       </c>
       <c r="Y29" t="n">
-        <v>1.32</v>
+        <v>1.57</v>
       </c>
       <c r="Z29" t="n">
-        <v>3.29</v>
+        <v>3.64</v>
       </c>
       <c r="AA29" t="n">
-        <v>1.45</v>
+        <v>0</v>
       </c>
       <c r="AB29" t="n">
-        <v>8.5</v>
+        <v>0</v>
       </c>
       <c r="AC29" t="n">
-        <v>3.35</v>
+        <v>0</v>
       </c>
       <c r="AD29" t="n">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="AE29" t="n">
-        <v>1.55</v>
+        <v>0</v>
       </c>
       <c r="AF29" t="n">
-        <v>1.93</v>
+        <v>0</v>
       </c>
       <c r="AG29" t="n">
-        <v>2.45</v>
+        <v>0</v>
       </c>
       <c r="AH29" t="n">
-        <v>3.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -3703,296 +3703,296 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Rayo Vallecano</t>
+          <t>Athletic Club Bilbao</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Real Valladolid</t>
+          <t>Real Betis</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>1.76</v>
+        <v>1.67</v>
       </c>
       <c r="G30" t="n">
-        <v>3.66</v>
+        <v>4</v>
       </c>
       <c r="H30" t="n">
-        <v>5.13</v>
+        <v>4.95</v>
       </c>
       <c r="I30" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="J30" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="K30" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="L30" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M30" t="n">
         <v>1.98</v>
       </c>
       <c r="N30" t="n">
-        <v>1.82</v>
+        <v>1.88</v>
       </c>
       <c r="O30" t="n">
-        <v>1.41</v>
+        <v>1.38</v>
       </c>
       <c r="P30" t="n">
-        <v>2.85</v>
+        <v>2.8</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="R30" t="n">
-        <v>1.91</v>
+        <v>1.86</v>
       </c>
       <c r="S30" t="n">
-        <v>1.21</v>
+        <v>1.17</v>
       </c>
       <c r="T30" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="U30" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V30" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="W30" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="X30" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AD30" t="n">
         <v>1.3</v>
       </c>
-      <c r="U30" t="n">
-        <v>2.17</v>
-      </c>
-      <c r="V30" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="W30" t="n">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="X30" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="Y30" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="Z30" t="n">
-        <v>2.99</v>
-      </c>
-      <c r="AA30" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="AB30" t="n">
-        <v>8</v>
-      </c>
-      <c r="AC30" t="n">
+      <c r="AE30" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AH30" t="n">
         <v>3.2</v>
-      </c>
-      <c r="AD30" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="AE30" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="AF30" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="AG30" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="AH30" t="n">
-        <v>3.7</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Argentina Prim B Nacional</t>
+          <t>Spain La Liga</t>
         </is>
       </c>
       <c r="B31" s="2" t="n">
-        <v>45050.79166666666</v>
+        <v>45050.70833333334</v>
       </c>
       <c r="C31" t="n">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Deportivo Madryn</t>
+          <t>Rayo Vallecano</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Deportivo Maipú</t>
+          <t>Real Valladolid</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>1.81</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>4.3</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>2.04</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>1.82</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>2.85</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>2.17</v>
       </c>
       <c r="V31" t="n">
-        <v>1.14</v>
+        <v>1.63</v>
       </c>
       <c r="W31" t="n">
-        <v>1.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="X31" t="n">
-        <v>1.4</v>
+        <v>1.82</v>
       </c>
       <c r="Y31" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="Z31" t="n">
-        <v>2.67</v>
+        <v>2.99</v>
       </c>
       <c r="AA31" t="n">
-        <v>0</v>
+        <v>1.49</v>
       </c>
       <c r="AB31" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AC31" t="n">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="AD31" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="AE31" t="n">
-        <v>0</v>
+        <v>1.68</v>
       </c>
       <c r="AF31" t="n">
-        <v>0</v>
+        <v>2.12</v>
       </c>
       <c r="AG31" t="n">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="AH31" t="n">
-        <v>0</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Argentina Prim B Nacional</t>
+          <t>Brazil Serie C</t>
         </is>
       </c>
       <c r="B32" s="2" t="n">
-        <v>45050.79166666666</v>
+        <v>45050.75</v>
       </c>
       <c r="C32" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Deportivo Riestra</t>
+          <t>CSA</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Racing Córdoba</t>
+          <t>Confiança</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>4.75</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>2.45</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="V32" t="n">
-        <v>1.83</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0.83</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>1.56</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>1.42</v>
+        <v>0</v>
       </c>
       <c r="Z32" t="n">
-        <v>2.98</v>
+        <v>0</v>
       </c>
       <c r="AA32" t="n">
         <v>0</v>
@@ -4363,12 +4363,12 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Villa Dálmine</t>
+          <t>Brown de Adrogué</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Aldosivi</t>
+          <t>Club Atlético Mitre</t>
         </is>
       </c>
       <c r="F36" t="n">
@@ -4420,19 +4420,19 @@
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>2.33</v>
+        <v>1.71</v>
       </c>
       <c r="W36" t="n">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="X36" t="n">
-        <v>1.41</v>
+        <v>1.62</v>
       </c>
       <c r="Y36" t="n">
-        <v>1.34</v>
+        <v>1.51</v>
       </c>
       <c r="Z36" t="n">
-        <v>2.75</v>
+        <v>3.13</v>
       </c>
       <c r="AA36" t="n">
         <v>0</v>
@@ -4473,12 +4473,12 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Estudiantes Caseros</t>
+          <t>Villa Dálmine</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Chaco For Ever</t>
+          <t>Aldosivi</t>
         </is>
       </c>
       <c r="F37" t="n">
@@ -4530,19 +4530,19 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>1.14</v>
+        <v>2.33</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>0.83</v>
       </c>
       <c r="X37" t="n">
-        <v>1.45</v>
+        <v>1.41</v>
       </c>
       <c r="Y37" t="n">
-        <v>1.23</v>
+        <v>1.34</v>
       </c>
       <c r="Z37" t="n">
-        <v>2.68</v>
+        <v>2.75</v>
       </c>
       <c r="AA37" t="n">
         <v>0</v>
@@ -4682,33 +4682,33 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Brazil Serie C</t>
+          <t>Argentina Prim B Nacional</t>
         </is>
       </c>
       <c r="B39" s="2" t="n">
         <v>45050.79166666666</v>
       </c>
       <c r="C39" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>CSA</t>
+          <t>Deportivo Madryn</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Confiança</t>
+          <t>Deportivo Maipú</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>1.75</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>3.22</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>4.42</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -4723,10 +4723,10 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>2.27</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>1.56</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -4741,28 +4741,28 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>1.13</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>2.1</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>1.14</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="Z39" t="n">
-        <v>0</v>
+        <v>2.67</v>
       </c>
       <c r="AA39" t="n">
         <v>0</v>
@@ -4803,12 +4803,12 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Brown de Adrogué</t>
+          <t>Deportivo Riestra</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Club Atlético Mitre</t>
+          <t>Racing Córdoba</t>
         </is>
       </c>
       <c r="F40" t="n">
@@ -4860,19 +4860,19 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>1.71</v>
+        <v>1.83</v>
       </c>
       <c r="W40" t="n">
-        <v>0.86</v>
+        <v>0.83</v>
       </c>
       <c r="X40" t="n">
-        <v>1.62</v>
+        <v>1.56</v>
       </c>
       <c r="Y40" t="n">
-        <v>1.51</v>
+        <v>1.42</v>
       </c>
       <c r="Z40" t="n">
-        <v>3.13</v>
+        <v>2.98</v>
       </c>
       <c r="AA40" t="n">
         <v>0</v>
@@ -4902,33 +4902,33 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Brazil Serie C</t>
+          <t>Argentina Prim B Nacional</t>
         </is>
       </c>
       <c r="B41" s="2" t="n">
         <v>45050.79166666666</v>
       </c>
       <c r="C41" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Botafogo PB</t>
+          <t>Estudiantes Caseros</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Operário PR</t>
+          <t>Chaco For Ever</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>2.42</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>2.86</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>2.88</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -4943,10 +4943,10 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>2.29</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>1.56</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
@@ -4970,19 +4970,19 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>1.14</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="Z41" t="n">
-        <v>0</v>
+        <v>2.68</v>
       </c>
       <c r="AA41" t="n">
         <v>0</v>
@@ -5012,33 +5012,33 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Chile Segunda División</t>
+          <t>Brazil Serie C</t>
         </is>
       </c>
       <c r="B42" s="2" t="n">
-        <v>45050.83333333334</v>
+        <v>45050.79166666666</v>
       </c>
       <c r="C42" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Trasandino</t>
+          <t>Botafogo PB</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Deportes Valdivia</t>
+          <t>Operário PR</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>2.88</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2.88</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -5053,10 +5053,10 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>2.29</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>1.56</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -5080,19 +5080,19 @@
         <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>1.75</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>1.92</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>1.28</v>
+        <v>0</v>
       </c>
       <c r="Z42" t="n">
-        <v>3.2</v>
+        <v>0</v>
       </c>
       <c r="AA42" t="n">
         <v>0</v>
@@ -5122,110 +5122,220 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
+          <t>Chile Segunda División</t>
+        </is>
+      </c>
+      <c r="B43" s="2" t="n">
+        <v>45050.83333333334</v>
+      </c>
+      <c r="C43" t="n">
+        <v>9</v>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Trasandino</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Deportes Valdivia</t>
+        </is>
+      </c>
+      <c r="F43" t="n">
+        <v>0</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0</v>
+      </c>
+      <c r="P43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>0</v>
+      </c>
+      <c r="R43" t="n">
+        <v>0</v>
+      </c>
+      <c r="S43" t="n">
+        <v>0</v>
+      </c>
+      <c r="T43" t="n">
+        <v>0</v>
+      </c>
+      <c r="U43" t="n">
+        <v>0</v>
+      </c>
+      <c r="V43" t="n">
+        <v>2</v>
+      </c>
+      <c r="W43" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="X43" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="Y43" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="Z43" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AA43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH43" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
           <t>Colombia Categoria Primera A</t>
         </is>
       </c>
-      <c r="B43" s="2" t="n">
+      <c r="B44" s="2" t="n">
         <v>45050.83680555555</v>
       </c>
-      <c r="C43" t="n">
+      <c r="C44" t="n">
         <v>14</v>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="D44" t="inlineStr">
         <is>
           <t>Millonarios</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>Envigado</t>
         </is>
       </c>
-      <c r="F43" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="G43" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="H43" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0</v>
-      </c>
-      <c r="L43" t="n">
-        <v>0</v>
-      </c>
-      <c r="M43" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="N43" t="n">
+      <c r="F44" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="G44" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="H44" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="I44" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="J44" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="K44" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="L44" t="n">
+        <v>3</v>
+      </c>
+      <c r="M44" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="N44" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="O44" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="P44" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="R44" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="S44" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="T44" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="U44" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="V44" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="W44" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="X44" t="n">
         <v>1.65</v>
       </c>
-      <c r="O43" t="n">
-        <v>0</v>
-      </c>
-      <c r="P43" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>0</v>
-      </c>
-      <c r="R43" t="n">
-        <v>0</v>
-      </c>
-      <c r="S43" t="n">
-        <v>0</v>
-      </c>
-      <c r="T43" t="n">
-        <v>0</v>
-      </c>
-      <c r="U43" t="n">
-        <v>0</v>
-      </c>
-      <c r="V43" t="n">
-        <v>2.67</v>
-      </c>
-      <c r="W43" t="n">
-        <v>0.86</v>
-      </c>
-      <c r="X43" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="Y43" t="n">
+      <c r="Y44" t="n">
         <v>1.44</v>
       </c>
-      <c r="Z43" t="n">
+      <c r="Z44" t="n">
         <v>3.09</v>
       </c>
-      <c r="AA43" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB43" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC43" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD43" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE43" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF43" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG43" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH43" t="n">
+      <c r="AA44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH44" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Jogos_do_Dia/2023-05-04_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-05-04_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH44"/>
+  <dimension ref="A1:AH35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -632,13 +632,13 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.25</v>
+        <v>2.23</v>
       </c>
       <c r="G2" t="n">
-        <v>2.9</v>
+        <v>3.05</v>
       </c>
       <c r="H2" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I2" t="n">
         <v>1.1</v>
@@ -653,10 +653,10 @@
         <v>2.65</v>
       </c>
       <c r="M2" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="N2" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="O2" t="n">
         <v>1.53</v>
@@ -680,10 +680,10 @@
         <v>1.57</v>
       </c>
       <c r="V2" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="W2" t="n">
         <v>3</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>2.28</v>
@@ -742,13 +742,13 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.85</v>
+        <v>1.91</v>
       </c>
       <c r="G3" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="H3" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="I3" t="n">
         <v>1.11</v>
@@ -757,16 +757,16 @@
         <v>6</v>
       </c>
       <c r="K3" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="L3" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="M3" t="n">
         <v>2.3</v>
       </c>
       <c r="N3" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="O3" t="n">
         <v>1.53</v>
@@ -790,10 +790,10 @@
         <v>1.7</v>
       </c>
       <c r="V3" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W3" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="X3" t="n">
         <v>1.91</v>
@@ -852,13 +852,13 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.25</v>
+        <v>2.21</v>
       </c>
       <c r="G4" t="n">
         <v>3</v>
       </c>
       <c r="H4" t="n">
-        <v>2.9</v>
+        <v>3.15</v>
       </c>
       <c r="I4" t="n">
         <v>1.08</v>
@@ -873,7 +873,7 @@
         <v>2.9</v>
       </c>
       <c r="M4" t="n">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="N4" t="n">
         <v>1.6</v>
@@ -900,7 +900,7 @@
         <v>1.5</v>
       </c>
       <c r="V4" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -962,13 +962,13 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2</v>
+        <v>1.84</v>
       </c>
       <c r="G5" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="H5" t="n">
-        <v>3.6</v>
+        <v>4.1</v>
       </c>
       <c r="I5" t="n">
         <v>1.05</v>
@@ -983,10 +983,10 @@
         <v>2.64</v>
       </c>
       <c r="M5" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="N5" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="O5" t="n">
         <v>1.48</v>
@@ -1010,7 +1010,7 @@
         <v>1.66</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -1120,10 +1120,10 @@
         <v>1.29</v>
       </c>
       <c r="V6" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="W6" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="X6" t="n">
         <v>1.76</v>
@@ -1230,10 +1230,10 @@
         <v>1.58</v>
       </c>
       <c r="V7" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="W7" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="X7" t="n">
         <v>1.5</v>
@@ -1245,13 +1245,13 @@
         <v>2.71</v>
       </c>
       <c r="AA7" t="n">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="AB7" t="n">
-        <v>0</v>
+        <v>6.9</v>
       </c>
       <c r="AC7" t="n">
-        <v>0</v>
+        <v>2.27</v>
       </c>
       <c r="AD7" t="n">
         <v>1.33</v>
@@ -1292,13 +1292,13 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.1</v>
+        <v>2.51</v>
       </c>
       <c r="G8" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="H8" t="n">
-        <v>3</v>
+        <v>2.45</v>
       </c>
       <c r="I8" t="n">
         <v>1.07</v>
@@ -1313,10 +1313,10 @@
         <v>2.95</v>
       </c>
       <c r="M8" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="N8" t="n">
-        <v>1.72</v>
+        <v>1.65</v>
       </c>
       <c r="O8" t="n">
         <v>1.44</v>
@@ -1340,10 +1340,10 @@
         <v>1.48</v>
       </c>
       <c r="V8" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="W8" t="n">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="X8" t="n">
         <v>0.92</v>
@@ -1364,7 +1364,7 @@
         <v>2.5</v>
       </c>
       <c r="AD8" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="AE8" t="n">
         <v>1.44</v>
@@ -1402,13 +1402,13 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.38</v>
+        <v>2.35</v>
       </c>
       <c r="G9" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="H9" t="n">
-        <v>2.63</v>
+        <v>2.7</v>
       </c>
       <c r="I9" t="n">
         <v>1.08</v>
@@ -1450,7 +1450,7 @@
         <v>1.55</v>
       </c>
       <c r="V9" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="W9" t="n">
         <v>1</v>
@@ -1474,7 +1474,7 @@
         <v>2.15</v>
       </c>
       <c r="AD9" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="AE9" t="n">
         <v>1.5</v>
@@ -1486,7 +1486,7 @@
         <v>2.4</v>
       </c>
       <c r="AH9" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="10">
@@ -1512,13 +1512,13 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>4.33</v>
+        <v>3.7</v>
       </c>
       <c r="G10" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="H10" t="n">
-        <v>1.67</v>
+        <v>1.78</v>
       </c>
       <c r="I10" t="n">
         <v>1.03</v>
@@ -1533,10 +1533,10 @@
         <v>4.33</v>
       </c>
       <c r="M10" t="n">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="N10" t="n">
-        <v>2.02</v>
+        <v>1.92</v>
       </c>
       <c r="O10" t="n">
         <v>1.35</v>
@@ -1584,7 +1584,7 @@
         <v>1.41</v>
       </c>
       <c r="AD10" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="AE10" t="n">
         <v>1.5</v>
@@ -1596,7 +1596,7 @@
         <v>2.4</v>
       </c>
       <c r="AH10" t="n">
-        <v>0</v>
+        <v>3.34</v>
       </c>
     </row>
     <row r="11">
@@ -1622,13 +1622,13 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>3.4</v>
+        <v>2.99</v>
       </c>
       <c r="G11" t="n">
-        <v>2.95</v>
+        <v>3.15</v>
       </c>
       <c r="H11" t="n">
-        <v>2.05</v>
+        <v>2.13</v>
       </c>
       <c r="I11" t="n">
         <v>1.05</v>
@@ -1670,10 +1670,10 @@
         <v>1.3</v>
       </c>
       <c r="V11" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="W11" t="n">
-        <v>0.57</v>
+        <v>0.73</v>
       </c>
       <c r="X11" t="n">
         <v>1.32</v>
@@ -1735,10 +1735,10 @@
         <v>9</v>
       </c>
       <c r="G12" t="n">
-        <v>4.33</v>
+        <v>4.6</v>
       </c>
       <c r="H12" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="I12" t="n">
         <v>1.04</v>
@@ -1753,10 +1753,10 @@
         <v>3.75</v>
       </c>
       <c r="M12" t="n">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="N12" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="O12" t="n">
         <v>1.35</v>
@@ -1795,25 +1795,25 @@
         <v>2.45</v>
       </c>
       <c r="AA12" t="n">
-        <v>0</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AB12" t="n">
-        <v>0</v>
+        <v>14.25</v>
       </c>
       <c r="AC12" t="n">
-        <v>0</v>
+        <v>1.09</v>
       </c>
       <c r="AD12" t="n">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="AE12" t="n">
-        <v>0</v>
+        <v>1.87</v>
       </c>
       <c r="AF12" t="n">
-        <v>0</v>
+        <v>2.44</v>
       </c>
       <c r="AG12" t="n">
-        <v>0</v>
+        <v>3.28</v>
       </c>
       <c r="AH12" t="n">
         <v>0</v>
@@ -1842,25 +1842,25 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.4</v>
+        <v>2.8</v>
       </c>
       <c r="G13" t="n">
-        <v>2.65</v>
+        <v>2.7</v>
       </c>
       <c r="H13" t="n">
-        <v>3.1</v>
+        <v>2.7</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="K13" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="L13" t="n">
-        <v>2.15</v>
+        <v>2.11</v>
       </c>
       <c r="M13" t="n">
         <v>2.96</v>
@@ -1869,25 +1869,25 @@
         <v>1.28</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>1.66</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>2.45</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="V13" t="n">
         <v>1.89</v>
@@ -1952,13 +1952,13 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.91</v>
+        <v>1.85</v>
       </c>
       <c r="G14" t="n">
         <v>3.3</v>
       </c>
       <c r="H14" t="n">
-        <v>3.4</v>
+        <v>3.9</v>
       </c>
       <c r="I14" t="n">
         <v>1.05</v>
@@ -1973,10 +1973,10 @@
         <v>3.3</v>
       </c>
       <c r="M14" t="n">
-        <v>2.02</v>
+        <v>1.83</v>
       </c>
       <c r="N14" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="O14" t="n">
         <v>1.4</v>
@@ -2062,13 +2062,13 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="G15" t="n">
         <v>2.75</v>
       </c>
       <c r="H15" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="I15" t="n">
         <v>1.09</v>
@@ -2086,7 +2086,7 @@
         <v>2.75</v>
       </c>
       <c r="N15" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="O15" t="n">
         <v>1.61</v>
@@ -2172,13 +2172,13 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.1</v>
+        <v>2.39</v>
       </c>
       <c r="G16" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="H16" t="n">
-        <v>4.25</v>
+        <v>3.5</v>
       </c>
       <c r="I16" t="n">
         <v>1.12</v>
@@ -2187,16 +2187,16 @@
         <v>5.1</v>
       </c>
       <c r="K16" t="n">
-        <v>1.58</v>
+        <v>1.53</v>
       </c>
       <c r="L16" t="n">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="M16" t="n">
-        <v>2.9</v>
+        <v>2.85</v>
       </c>
       <c r="N16" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="O16" t="n">
         <v>1.62</v>
@@ -2235,28 +2235,28 @@
         <v>2.77</v>
       </c>
       <c r="AA16" t="n">
-        <v>0</v>
+        <v>1.74</v>
       </c>
       <c r="AB16" t="n">
-        <v>0</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC16" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="AD16" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="AE16" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AF16" t="n">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="AG16" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="AH16" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="17">
@@ -2273,100 +2273,100 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>IFK Göteborg</t>
+          <t>Varberg</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Degerfors</t>
+          <t>Malmö FF</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.95</v>
+        <v>6.5</v>
       </c>
       <c r="G17" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="H17" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="I17" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="J17" t="n">
+        <v>13</v>
+      </c>
+      <c r="K17" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="L17" t="n">
+        <v>4</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="N17" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P17" t="n">
         <v>3.3</v>
       </c>
-      <c r="H17" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="I17" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="J17" t="n">
-        <v>11</v>
-      </c>
-      <c r="K17" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="L17" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="M17" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="N17" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="O17" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="P17" t="n">
-        <v>2.9</v>
-      </c>
       <c r="Q17" t="n">
-        <v>1.68</v>
+        <v>1.83</v>
       </c>
       <c r="R17" t="n">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S17" t="n">
-        <v>1.28</v>
+        <v>2.6</v>
       </c>
       <c r="T17" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="U17" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="V17" t="n">
+        <v>1</v>
+      </c>
+      <c r="W17" t="n">
+        <v>3</v>
+      </c>
+      <c r="X17" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AE17" t="n">
         <v>1.29</v>
       </c>
-      <c r="U17" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="V17" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="W17" t="n">
-        <v>0</v>
-      </c>
-      <c r="X17" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="Z17" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>8</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>1.21</v>
-      </c>
       <c r="AF17" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AG17" t="n">
-        <v>1.67</v>
+        <v>1.93</v>
       </c>
       <c r="AH17" t="n">
-        <v>2.1</v>
+        <v>2.43</v>
       </c>
     </row>
     <row r="18">
@@ -2383,91 +2383,91 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Norrköping</t>
+          <t>Värnamo</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Hammarby</t>
+          <t>Brommapojkarna</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2.7</v>
+        <v>1.83</v>
       </c>
       <c r="G18" t="n">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="H18" t="n">
-        <v>2.35</v>
+        <v>4</v>
       </c>
       <c r="I18" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="J18" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K18" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="L18" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="N18" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="P18" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="R18" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="S18" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="T18" t="n">
         <v>1.28</v>
       </c>
-      <c r="L18" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="M18" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="N18" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="O18" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="P18" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="R18" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="S18" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="T18" t="n">
-        <v>1.29</v>
-      </c>
       <c r="U18" t="n">
-        <v>1.44</v>
+        <v>1.9</v>
       </c>
       <c r="V18" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X18" t="n">
-        <v>1.32</v>
+        <v>1.47</v>
       </c>
       <c r="Y18" t="n">
-        <v>1.2</v>
+        <v>1.28</v>
       </c>
       <c r="Z18" t="n">
-        <v>2.52</v>
+        <v>2.75</v>
       </c>
       <c r="AA18" t="n">
-        <v>2.28</v>
+        <v>1.56</v>
       </c>
       <c r="AB18" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AC18" t="n">
-        <v>1.85</v>
+        <v>2.9</v>
       </c>
       <c r="AD18" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="AE18" t="n">
-        <v>1.29</v>
+        <v>1.24</v>
       </c>
       <c r="AF18" t="n">
         <v>1.43</v>
@@ -2493,91 +2493,91 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Värnamo</t>
+          <t>Norrköping</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Brommapojkarna</t>
+          <t>Hammarby</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.83</v>
+        <v>2.63</v>
       </c>
       <c r="G19" t="n">
         <v>3.4</v>
       </c>
       <c r="H19" t="n">
-        <v>3.9</v>
+        <v>2.5</v>
       </c>
       <c r="I19" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="J19" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K19" t="n">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="L19" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M19" t="n">
-        <v>1.8</v>
+        <v>1.65</v>
       </c>
       <c r="N19" t="n">
-        <v>1.83</v>
+        <v>2.25</v>
       </c>
       <c r="O19" t="n">
-        <v>1.37</v>
+        <v>1.31</v>
       </c>
       <c r="P19" t="n">
-        <v>2.85</v>
+        <v>3.1</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.77</v>
+        <v>1.58</v>
       </c>
       <c r="R19" t="n">
-        <v>1.93</v>
+        <v>2.2</v>
       </c>
       <c r="S19" t="n">
-        <v>1.23</v>
+        <v>1.52</v>
       </c>
       <c r="T19" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="U19" t="n">
-        <v>1.9</v>
+        <v>1.44</v>
       </c>
       <c r="V19" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="W19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>1.47</v>
+        <v>1.32</v>
       </c>
       <c r="Y19" t="n">
-        <v>1.28</v>
+        <v>1.2</v>
       </c>
       <c r="Z19" t="n">
-        <v>2.75</v>
+        <v>2.52</v>
       </c>
       <c r="AA19" t="n">
-        <v>1.56</v>
+        <v>2.28</v>
       </c>
       <c r="AB19" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AC19" t="n">
-        <v>2.9</v>
+        <v>1.85</v>
       </c>
       <c r="AD19" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AE19" t="n">
-        <v>1.24</v>
+        <v>1.29</v>
       </c>
       <c r="AF19" t="n">
         <v>1.43</v>
@@ -2603,100 +2603,100 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Varberg</t>
+          <t>IFK Göteborg</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Malmö FF</t>
+          <t>Degerfors</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>5.75</v>
+        <v>1.95</v>
       </c>
       <c r="G20" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="H20" t="n">
-        <v>1.5</v>
+        <v>3.6</v>
       </c>
       <c r="I20" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="J20" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K20" t="n">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="L20" t="n">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M20" t="n">
-        <v>1.61</v>
+        <v>1.83</v>
       </c>
       <c r="N20" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="O20" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="P20" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="R20" t="n">
+        <v>2</v>
+      </c>
+      <c r="S20" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="T20" t="n">
         <v>1.29</v>
       </c>
-      <c r="P20" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="R20" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="S20" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="T20" t="n">
-        <v>1.19</v>
-      </c>
       <c r="U20" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="W20" t="n">
+        <v>0</v>
+      </c>
+      <c r="X20" t="n">
         <v>1.13</v>
       </c>
-      <c r="V20" t="n">
-        <v>1</v>
-      </c>
-      <c r="W20" t="n">
-        <v>3</v>
-      </c>
-      <c r="X20" t="n">
-        <v>1.02</v>
-      </c>
       <c r="Y20" t="n">
-        <v>1.65</v>
+        <v>1.11</v>
       </c>
       <c r="Z20" t="n">
-        <v>2.67</v>
+        <v>2.24</v>
       </c>
       <c r="AA20" t="n">
-        <v>5.1</v>
+        <v>1.55</v>
       </c>
       <c r="AB20" t="n">
-        <v>9.5</v>
+        <v>8</v>
       </c>
       <c r="AC20" t="n">
-        <v>1.22</v>
+        <v>2.9</v>
       </c>
       <c r="AD20" t="n">
-        <v>1.16</v>
+        <v>1.12</v>
       </c>
       <c r="AE20" t="n">
-        <v>1.29</v>
+        <v>1.21</v>
       </c>
       <c r="AF20" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AG20" t="n">
-        <v>1.93</v>
+        <v>1.67</v>
       </c>
       <c r="AH20" t="n">
-        <v>2.43</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="21">
@@ -2713,320 +2713,320 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Sevilla FC</t>
+          <t>Girona FC</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>RCD Espanyol</t>
+          <t>RCD Mallorca</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1.76</v>
+        <v>1.92</v>
       </c>
       <c r="G21" t="n">
-        <v>3.8</v>
+        <v>3.43</v>
       </c>
       <c r="H21" t="n">
-        <v>4.55</v>
+        <v>4.18</v>
       </c>
       <c r="I21" t="n">
-        <v>1.06</v>
+        <v>1.09</v>
       </c>
       <c r="J21" t="n">
-        <v>8.5</v>
+        <v>7</v>
       </c>
       <c r="K21" t="n">
-        <v>1.34</v>
+        <v>1.44</v>
       </c>
       <c r="L21" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="M21" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="N21" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="O21" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P21" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="R21" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="S21" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="T21" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="U21" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="V21" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="W21" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="X21" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AG21" t="n">
         <v>3</v>
       </c>
-      <c r="M21" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="N21" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="O21" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="P21" t="n">
-        <v>2.73</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="R21" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="S21" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="T21" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="U21" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="V21" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="W21" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="X21" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="Y21" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="Z21" t="n">
-        <v>3.03</v>
-      </c>
-      <c r="AA21" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="AB21" t="n">
-        <v>8</v>
-      </c>
-      <c r="AC21" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="AD21" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="AE21" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="AF21" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="AG21" t="n">
-        <v>2.7</v>
-      </c>
       <c r="AH21" t="n">
-        <v>3.65</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Bulgaria First League</t>
+          <t>Spain La Liga</t>
         </is>
       </c>
       <c r="B22" s="2" t="n">
         <v>45050.60416666666</v>
       </c>
       <c r="C22" t="n">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Levski Sofia</t>
+          <t>Sevilla FC</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Septemvri Sofia</t>
+          <t>RCD Espanyol</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.2</v>
+        <v>1.76</v>
       </c>
       <c r="G22" t="n">
-        <v>5</v>
+        <v>3.67</v>
       </c>
       <c r="H22" t="n">
-        <v>11</v>
+        <v>4.83</v>
       </c>
       <c r="I22" t="n">
-        <v>1.02</v>
+        <v>1.06</v>
       </c>
       <c r="J22" t="n">
-        <v>14</v>
+        <v>8.5</v>
       </c>
       <c r="K22" t="n">
-        <v>1.19</v>
+        <v>1.34</v>
       </c>
       <c r="L22" t="n">
-        <v>3.95</v>
+        <v>3</v>
       </c>
       <c r="M22" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="N22" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="O22" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P22" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="R22" t="n">
         <v>1.8</v>
       </c>
-      <c r="N22" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="O22" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P22" t="n">
-        <v>3.23</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="R22" t="n">
-        <v>1.47</v>
-      </c>
       <c r="S22" t="n">
-        <v>1.04</v>
+        <v>1.24</v>
       </c>
       <c r="T22" t="n">
-        <v>1.09</v>
+        <v>1.29</v>
       </c>
       <c r="U22" t="n">
-        <v>2.97</v>
+        <v>1.85</v>
       </c>
       <c r="V22" t="n">
-        <v>2.14</v>
+        <v>1.38</v>
       </c>
       <c r="W22" t="n">
-        <v>0.79</v>
+        <v>0.88</v>
       </c>
       <c r="X22" t="n">
-        <v>2.16</v>
+        <v>1.92</v>
       </c>
       <c r="Y22" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="Z22" t="n">
-        <v>3.41</v>
+        <v>3.03</v>
       </c>
       <c r="AA22" t="n">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="AB22" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AC22" t="n">
-        <v>0</v>
+        <v>2.88</v>
       </c>
       <c r="AD22" t="n">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="AE22" t="n">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="AF22" t="n">
-        <v>0</v>
+        <v>2.08</v>
       </c>
       <c r="AG22" t="n">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="AH22" t="n">
-        <v>0</v>
+        <v>3.65</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Spain La Liga</t>
+          <t>Bulgaria First League</t>
         </is>
       </c>
       <c r="B23" s="2" t="n">
         <v>45050.60416666666</v>
       </c>
       <c r="C23" t="n">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Girona FC</t>
+          <t>Levski Sofia</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>RCD Mallorca</t>
+          <t>Septemvri Sofia</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2.3</v>
+        <v>1.18</v>
       </c>
       <c r="G23" t="n">
-        <v>3.25</v>
+        <v>5.5</v>
       </c>
       <c r="H23" t="n">
-        <v>3.25</v>
+        <v>12</v>
       </c>
       <c r="I23" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="J23" t="n">
+        <v>14</v>
+      </c>
+      <c r="K23" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="L23" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="N23" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="O23" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P23" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="R23" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="S23" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="T23" t="n">
         <v>1.09</v>
       </c>
-      <c r="J23" t="n">
-        <v>7</v>
-      </c>
-      <c r="K23" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="L23" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="M23" t="n">
-        <v>2.43</v>
-      </c>
-      <c r="N23" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="O23" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="P23" t="n">
-        <v>2.37</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="R23" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="S23" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="T23" t="n">
-        <v>1.33</v>
-      </c>
       <c r="U23" t="n">
-        <v>1.71</v>
+        <v>2.97</v>
       </c>
       <c r="V23" t="n">
-        <v>1.88</v>
+        <v>2.14</v>
       </c>
       <c r="W23" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.79</v>
       </c>
       <c r="X23" t="n">
-        <v>1.75</v>
+        <v>2.16</v>
       </c>
       <c r="Y23" t="n">
-        <v>1.08</v>
+        <v>1.25</v>
       </c>
       <c r="Z23" t="n">
-        <v>2.83</v>
+        <v>3.41</v>
       </c>
       <c r="AA23" t="n">
-        <v>1.68</v>
+        <v>0</v>
       </c>
       <c r="AB23" t="n">
-        <v>7.5</v>
+        <v>0</v>
       </c>
       <c r="AC23" t="n">
-        <v>2.55</v>
+        <v>0</v>
       </c>
       <c r="AD23" t="n">
-        <v>1.44</v>
+        <v>0</v>
       </c>
       <c r="AE23" t="n">
-        <v>1.79</v>
+        <v>0</v>
       </c>
       <c r="AF23" t="n">
-        <v>2.25</v>
+        <v>1.45</v>
       </c>
       <c r="AG23" t="n">
-        <v>3</v>
+        <v>1.8</v>
       </c>
       <c r="AH23" t="n">
-        <v>4.1</v>
+        <v>2.27</v>
       </c>
     </row>
     <row r="24">
@@ -3052,13 +3052,13 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="G24" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="H24" t="n">
-        <v>3.45</v>
+        <v>3.8</v>
       </c>
       <c r="I24" t="n">
         <v>1.01</v>
@@ -3073,10 +3073,10 @@
         <v>3.7</v>
       </c>
       <c r="M24" t="n">
-        <v>1.92</v>
+        <v>1.83</v>
       </c>
       <c r="N24" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="O24" t="n">
         <v>1.38</v>
@@ -3124,7 +3124,7 @@
         <v>2.9</v>
       </c>
       <c r="AD24" t="n">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="AE24" t="n">
         <v>1.51</v>
@@ -3136,7 +3136,7 @@
         <v>2.45</v>
       </c>
       <c r="AH24" t="n">
-        <v>0</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="25">
@@ -3162,13 +3162,13 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="G25" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="H25" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="I25" t="n">
         <v>1.1</v>
@@ -3183,7 +3183,7 @@
         <v>2.45</v>
       </c>
       <c r="M25" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="N25" t="n">
         <v>1.5</v>
@@ -3272,13 +3272,13 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>2.74</v>
+        <v>2.4</v>
       </c>
       <c r="G26" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="H26" t="n">
-        <v>2.36</v>
+        <v>2.8</v>
       </c>
       <c r="I26" t="n">
         <v>1.06</v>
@@ -3293,7 +3293,7 @@
         <v>3.2</v>
       </c>
       <c r="M26" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="N26" t="n">
         <v>1.83</v>
@@ -3382,13 +3382,13 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>3.05</v>
+        <v>2.8</v>
       </c>
       <c r="G27" t="n">
-        <v>3.3</v>
+        <v>3.33</v>
       </c>
       <c r="H27" t="n">
-        <v>2.45</v>
+        <v>2.54</v>
       </c>
       <c r="I27" t="n">
         <v>1.08</v>
@@ -3403,10 +3403,10 @@
         <v>3.05</v>
       </c>
       <c r="M27" t="n">
-        <v>2.16</v>
+        <v>2.09</v>
       </c>
       <c r="N27" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="O27" t="n">
         <v>1.44</v>
@@ -3492,13 +3492,13 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>3.95</v>
+        <v>4.85</v>
       </c>
       <c r="G28" t="n">
-        <v>3.95</v>
+        <v>4.18</v>
       </c>
       <c r="H28" t="n">
-        <v>1.87</v>
+        <v>1.65</v>
       </c>
       <c r="I28" t="n">
         <v>1.01</v>
@@ -3513,10 +3513,10 @@
         <v>3.62</v>
       </c>
       <c r="M28" t="n">
-        <v>1.84</v>
+        <v>1.61</v>
       </c>
       <c r="N28" t="n">
-        <v>1.9</v>
+        <v>2.18</v>
       </c>
       <c r="O28" t="n">
         <v>1.38</v>
@@ -3712,13 +3712,13 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="G30" t="n">
-        <v>4</v>
+        <v>3.85</v>
       </c>
       <c r="H30" t="n">
-        <v>4.95</v>
+        <v>5.15</v>
       </c>
       <c r="I30" t="n">
         <v>1.05</v>
@@ -3733,10 +3733,10 @@
         <v>3.3</v>
       </c>
       <c r="M30" t="n">
-        <v>1.98</v>
+        <v>1.91</v>
       </c>
       <c r="N30" t="n">
-        <v>1.88</v>
+        <v>1.8</v>
       </c>
       <c r="O30" t="n">
         <v>1.38</v>
@@ -3822,13 +3822,13 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>1.81</v>
+        <v>1.72</v>
       </c>
       <c r="G31" t="n">
-        <v>3.75</v>
+        <v>3.65</v>
       </c>
       <c r="H31" t="n">
-        <v>4.3</v>
+        <v>5.15</v>
       </c>
       <c r="I31" t="n">
         <v>1.06</v>
@@ -3843,10 +3843,10 @@
         <v>3.2</v>
       </c>
       <c r="M31" t="n">
-        <v>2.04</v>
+        <v>1.93</v>
       </c>
       <c r="N31" t="n">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="O31" t="n">
         <v>1.41</v>
@@ -3932,13 +3932,13 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="G32" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="H32" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="I32" t="n">
         <v>1.06</v>
@@ -3956,7 +3956,7 @@
         <v>2.3</v>
       </c>
       <c r="N32" t="n">
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
       <c r="O32" t="n">
         <v>1.5</v>
@@ -3995,25 +3995,25 @@
         <v>0</v>
       </c>
       <c r="AA32" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="AB32" t="n">
-        <v>0</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="AC32" t="n">
-        <v>0</v>
+        <v>3.64</v>
       </c>
       <c r="AD32" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="AE32" t="n">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="AF32" t="n">
-        <v>0</v>
+        <v>2.03</v>
       </c>
       <c r="AG32" t="n">
-        <v>0</v>
+        <v>2.71</v>
       </c>
       <c r="AH32" t="n">
         <v>0</v>
@@ -4022,33 +4022,33 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Argentina Prim B Nacional</t>
+          <t>Brazil Serie C</t>
         </is>
       </c>
       <c r="B33" s="2" t="n">
         <v>45050.79166666666</v>
       </c>
       <c r="C33" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Ferro Carril Oeste</t>
+          <t>Botafogo PB</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Atlanta</t>
+          <t>Operário PR</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>2.88</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -4057,16 +4057,16 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>1.49</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>2.45</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>2.29</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>1.56</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -4090,19 +4090,19 @@
         <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>0.83</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>1.29</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>1.36</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>1.18</v>
+        <v>0</v>
       </c>
       <c r="Z33" t="n">
-        <v>2.54</v>
+        <v>0</v>
       </c>
       <c r="AA33" t="n">
         <v>0</v>
@@ -4132,87 +4132,87 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Argentina Prim B Nacional</t>
+          <t>Chile Segunda División</t>
         </is>
       </c>
       <c r="B34" s="2" t="n">
-        <v>45050.79166666666</v>
+        <v>45050.83333333334</v>
       </c>
       <c r="C34" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Gimnasia Jujuy</t>
+          <t>Trasandino</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Tristán Suárez</t>
+          <t>Deportes Valdivia</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>2.71</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>2.53</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>1.66</v>
       </c>
       <c r="V34" t="n">
-        <v>1.71</v>
+        <v>2</v>
       </c>
       <c r="W34" t="n">
-        <v>1</v>
+        <v>1.75</v>
       </c>
       <c r="X34" t="n">
-        <v>1.39</v>
+        <v>1.92</v>
       </c>
       <c r="Y34" t="n">
-        <v>1.47</v>
+        <v>1.28</v>
       </c>
       <c r="Z34" t="n">
-        <v>2.86</v>
+        <v>3.2</v>
       </c>
       <c r="AA34" t="n">
         <v>0</v>
@@ -4242,1100 +4242,110 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Argentina Prim B Nacional</t>
+          <t>Colombia Categoria Primera A</t>
         </is>
       </c>
       <c r="B35" s="2" t="n">
-        <v>45050.79166666666</v>
+        <v>45050.83680555555</v>
       </c>
       <c r="C35" t="n">
         <v>14</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Quilmes</t>
+          <t>Millonarios</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Chacarita Juniors</t>
+          <t>Envigado</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>1.71</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>2.48</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>1.09</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="V35" t="n">
-        <v>2.57</v>
+        <v>2.67</v>
       </c>
       <c r="W35" t="n">
-        <v>1.86</v>
+        <v>0.86</v>
       </c>
       <c r="X35" t="n">
-        <v>1.72</v>
+        <v>1.65</v>
       </c>
       <c r="Y35" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="Z35" t="n">
-        <v>3.22</v>
+        <v>3.09</v>
       </c>
       <c r="AA35" t="n">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="AB35" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AC35" t="n">
-        <v>0</v>
+        <v>3.09</v>
       </c>
       <c r="AD35" t="n">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="AE35" t="n">
-        <v>0</v>
+        <v>1.77</v>
       </c>
       <c r="AF35" t="n">
-        <v>0</v>
+        <v>2.21</v>
       </c>
       <c r="AG35" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AH35" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>Argentina Prim B Nacional</t>
-        </is>
-      </c>
-      <c r="B36" s="2" t="n">
-        <v>45050.79166666666</v>
-      </c>
-      <c r="C36" t="n">
-        <v>14</v>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>Brown de Adrogué</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>Club Atlético Mitre</t>
-        </is>
-      </c>
-      <c r="F36" t="n">
-        <v>0</v>
-      </c>
-      <c r="G36" t="n">
-        <v>0</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
-      <c r="J36" t="n">
-        <v>0</v>
-      </c>
-      <c r="K36" t="n">
-        <v>0</v>
-      </c>
-      <c r="L36" t="n">
-        <v>0</v>
-      </c>
-      <c r="M36" t="n">
-        <v>0</v>
-      </c>
-      <c r="N36" t="n">
-        <v>0</v>
-      </c>
-      <c r="O36" t="n">
-        <v>0</v>
-      </c>
-      <c r="P36" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q36" t="n">
-        <v>0</v>
-      </c>
-      <c r="R36" t="n">
-        <v>0</v>
-      </c>
-      <c r="S36" t="n">
-        <v>0</v>
-      </c>
-      <c r="T36" t="n">
-        <v>0</v>
-      </c>
-      <c r="U36" t="n">
-        <v>0</v>
-      </c>
-      <c r="V36" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="W36" t="n">
-        <v>0.86</v>
-      </c>
-      <c r="X36" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="Y36" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="Z36" t="n">
-        <v>3.13</v>
-      </c>
-      <c r="AA36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH36" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>Argentina Prim B Nacional</t>
-        </is>
-      </c>
-      <c r="B37" s="2" t="n">
-        <v>45050.79166666666</v>
-      </c>
-      <c r="C37" t="n">
-        <v>14</v>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>Villa Dálmine</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>Aldosivi</t>
-        </is>
-      </c>
-      <c r="F37" t="n">
-        <v>0</v>
-      </c>
-      <c r="G37" t="n">
-        <v>0</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0</v>
-      </c>
-      <c r="L37" t="n">
-        <v>0</v>
-      </c>
-      <c r="M37" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" t="n">
-        <v>0</v>
-      </c>
-      <c r="O37" t="n">
-        <v>0</v>
-      </c>
-      <c r="P37" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>0</v>
-      </c>
-      <c r="R37" t="n">
-        <v>0</v>
-      </c>
-      <c r="S37" t="n">
-        <v>0</v>
-      </c>
-      <c r="T37" t="n">
-        <v>0</v>
-      </c>
-      <c r="U37" t="n">
-        <v>0</v>
-      </c>
-      <c r="V37" t="n">
-        <v>2.33</v>
-      </c>
-      <c r="W37" t="n">
-        <v>0.83</v>
-      </c>
-      <c r="X37" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="Y37" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="Z37" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AA37" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB37" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC37" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD37" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE37" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF37" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG37" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH37" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>Argentina Prim B Nacional</t>
-        </is>
-      </c>
-      <c r="B38" s="2" t="n">
-        <v>45050.79166666666</v>
-      </c>
-      <c r="C38" t="n">
-        <v>14</v>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>Atlético Rafaela</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>Independiente Rivadavia</t>
-        </is>
-      </c>
-      <c r="F38" t="n">
-        <v>0</v>
-      </c>
-      <c r="G38" t="n">
-        <v>0</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0</v>
-      </c>
-      <c r="L38" t="n">
-        <v>0</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0</v>
-      </c>
-      <c r="O38" t="n">
-        <v>0</v>
-      </c>
-      <c r="P38" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>0</v>
-      </c>
-      <c r="R38" t="n">
-        <v>0</v>
-      </c>
-      <c r="S38" t="n">
-        <v>0</v>
-      </c>
-      <c r="T38" t="n">
-        <v>0</v>
-      </c>
-      <c r="U38" t="n">
-        <v>0</v>
-      </c>
-      <c r="V38" t="n">
-        <v>2</v>
-      </c>
-      <c r="W38" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="X38" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="Y38" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="Z38" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="AA38" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB38" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC38" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD38" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE38" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF38" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG38" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH38" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>Argentina Prim B Nacional</t>
-        </is>
-      </c>
-      <c r="B39" s="2" t="n">
-        <v>45050.79166666666</v>
-      </c>
-      <c r="C39" t="n">
-        <v>14</v>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>Deportivo Madryn</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>Deportivo Maipú</t>
-        </is>
-      </c>
-      <c r="F39" t="n">
-        <v>0</v>
-      </c>
-      <c r="G39" t="n">
-        <v>0</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>0</v>
-      </c>
-      <c r="K39" t="n">
-        <v>0</v>
-      </c>
-      <c r="L39" t="n">
-        <v>0</v>
-      </c>
-      <c r="M39" t="n">
-        <v>0</v>
-      </c>
-      <c r="N39" t="n">
-        <v>0</v>
-      </c>
-      <c r="O39" t="n">
-        <v>0</v>
-      </c>
-      <c r="P39" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q39" t="n">
-        <v>0</v>
-      </c>
-      <c r="R39" t="n">
-        <v>0</v>
-      </c>
-      <c r="S39" t="n">
-        <v>0</v>
-      </c>
-      <c r="T39" t="n">
-        <v>0</v>
-      </c>
-      <c r="U39" t="n">
-        <v>0</v>
-      </c>
-      <c r="V39" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="W39" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="X39" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="Y39" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="Z39" t="n">
-        <v>2.67</v>
-      </c>
-      <c r="AA39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH39" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>Argentina Prim B Nacional</t>
-        </is>
-      </c>
-      <c r="B40" s="2" t="n">
-        <v>45050.79166666666</v>
-      </c>
-      <c r="C40" t="n">
-        <v>14</v>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>Deportivo Riestra</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>Racing Córdoba</t>
-        </is>
-      </c>
-      <c r="F40" t="n">
-        <v>0</v>
-      </c>
-      <c r="G40" t="n">
-        <v>0</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0</v>
-      </c>
-      <c r="L40" t="n">
-        <v>0</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" t="n">
-        <v>0</v>
-      </c>
-      <c r="O40" t="n">
-        <v>0</v>
-      </c>
-      <c r="P40" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>0</v>
-      </c>
-      <c r="R40" t="n">
-        <v>0</v>
-      </c>
-      <c r="S40" t="n">
-        <v>0</v>
-      </c>
-      <c r="T40" t="n">
-        <v>0</v>
-      </c>
-      <c r="U40" t="n">
-        <v>0</v>
-      </c>
-      <c r="V40" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="W40" t="n">
-        <v>0.83</v>
-      </c>
-      <c r="X40" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="Y40" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="Z40" t="n">
-        <v>2.98</v>
-      </c>
-      <c r="AA40" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB40" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC40" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD40" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE40" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF40" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG40" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH40" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>Argentina Prim B Nacional</t>
-        </is>
-      </c>
-      <c r="B41" s="2" t="n">
-        <v>45050.79166666666</v>
-      </c>
-      <c r="C41" t="n">
-        <v>14</v>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>Estudiantes Caseros</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>Chaco For Ever</t>
-        </is>
-      </c>
-      <c r="F41" t="n">
-        <v>0</v>
-      </c>
-      <c r="G41" t="n">
-        <v>0</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0</v>
-      </c>
-      <c r="L41" t="n">
-        <v>0</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0</v>
-      </c>
-      <c r="O41" t="n">
-        <v>0</v>
-      </c>
-      <c r="P41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>0</v>
-      </c>
-      <c r="R41" t="n">
-        <v>0</v>
-      </c>
-      <c r="S41" t="n">
-        <v>0</v>
-      </c>
-      <c r="T41" t="n">
-        <v>0</v>
-      </c>
-      <c r="U41" t="n">
-        <v>0</v>
-      </c>
-      <c r="V41" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="W41" t="n">
-        <v>0</v>
-      </c>
-      <c r="X41" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="Y41" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="Z41" t="n">
-        <v>2.68</v>
-      </c>
-      <c r="AA41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH41" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>Brazil Serie C</t>
-        </is>
-      </c>
-      <c r="B42" s="2" t="n">
-        <v>45050.79166666666</v>
-      </c>
-      <c r="C42" t="n">
-        <v>1</v>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>Botafogo PB</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>Operário PR</t>
-        </is>
-      </c>
-      <c r="F42" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="G42" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="H42" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
-      <c r="J42" t="n">
-        <v>0</v>
-      </c>
-      <c r="K42" t="n">
-        <v>0</v>
-      </c>
-      <c r="L42" t="n">
-        <v>0</v>
-      </c>
-      <c r="M42" t="n">
-        <v>2.29</v>
-      </c>
-      <c r="N42" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="O42" t="n">
-        <v>0</v>
-      </c>
-      <c r="P42" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q42" t="n">
-        <v>0</v>
-      </c>
-      <c r="R42" t="n">
-        <v>0</v>
-      </c>
-      <c r="S42" t="n">
-        <v>0</v>
-      </c>
-      <c r="T42" t="n">
-        <v>0</v>
-      </c>
-      <c r="U42" t="n">
-        <v>0</v>
-      </c>
-      <c r="V42" t="n">
-        <v>0</v>
-      </c>
-      <c r="W42" t="n">
-        <v>0</v>
-      </c>
-      <c r="X42" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y42" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH42" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>Chile Segunda División</t>
-        </is>
-      </c>
-      <c r="B43" s="2" t="n">
-        <v>45050.83333333334</v>
-      </c>
-      <c r="C43" t="n">
-        <v>9</v>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>Trasandino</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>Deportes Valdivia</t>
-        </is>
-      </c>
-      <c r="F43" t="n">
-        <v>0</v>
-      </c>
-      <c r="G43" t="n">
-        <v>0</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0</v>
-      </c>
-      <c r="L43" t="n">
-        <v>0</v>
-      </c>
-      <c r="M43" t="n">
-        <v>0</v>
-      </c>
-      <c r="N43" t="n">
-        <v>0</v>
-      </c>
-      <c r="O43" t="n">
-        <v>0</v>
-      </c>
-      <c r="P43" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>0</v>
-      </c>
-      <c r="R43" t="n">
-        <v>0</v>
-      </c>
-      <c r="S43" t="n">
-        <v>0</v>
-      </c>
-      <c r="T43" t="n">
-        <v>0</v>
-      </c>
-      <c r="U43" t="n">
-        <v>0</v>
-      </c>
-      <c r="V43" t="n">
-        <v>2</v>
-      </c>
-      <c r="W43" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="X43" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="Y43" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="Z43" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="AA43" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB43" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC43" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD43" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE43" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF43" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG43" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH43" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>Colombia Categoria Primera A</t>
-        </is>
-      </c>
-      <c r="B44" s="2" t="n">
-        <v>45050.83680555555</v>
-      </c>
-      <c r="C44" t="n">
-        <v>14</v>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>Millonarios</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>Envigado</t>
-        </is>
-      </c>
-      <c r="F44" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="G44" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="H44" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="I44" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="J44" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="K44" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="L44" t="n">
-        <v>3</v>
-      </c>
-      <c r="M44" t="n">
-        <v>2.09</v>
-      </c>
-      <c r="N44" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="O44" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="P44" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="R44" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="S44" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="T44" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="U44" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="V44" t="n">
-        <v>2.67</v>
-      </c>
-      <c r="W44" t="n">
-        <v>0.86</v>
-      </c>
-      <c r="X44" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="Y44" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="Z44" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="AA44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH44" t="n">
         <v>0</v>
       </c>
     </row>
